--- a/Example_Missing_Data.xlsx
+++ b/Example_Missing_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Kaste\Desktop\Final PNAS Submission\GitHub Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Zoom Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BFC4BD6-533A-4020-AB24-1B7D8AB8EFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664A437B-5F19-4E72-84EE-7F6F9BC04908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13035" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Gene</t>
   </si>
   <si>
-    <t>Gene00004</t>
-  </si>
-  <si>
-    <t>Gene00005</t>
-  </si>
-  <si>
-    <t>Gene00006</t>
-  </si>
-  <si>
-    <t>Gene00007</t>
-  </si>
-  <si>
-    <t>Gene00008</t>
-  </si>
-  <si>
-    <t>Gene00009</t>
-  </si>
-  <si>
-    <t>Gene00010</t>
+    <t>G00004</t>
   </si>
 </sst>
 </file>
@@ -372,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,36 +372,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
